--- a/418_S24/gradelines.xlsx
+++ b/418_S24/gradelines.xlsx
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -219,7 +219,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -461,7 +460,7 @@
       </c>
       <c r="D2" s="2">
         <f>100*(SUM(E6:E15)/COUNT(E6:E15)*0.25 + SUM(E20:E22)*0.15 + E23*0.3)</f>
-        <v>22.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +534,7 @@
         <v>20.0</v>
       </c>
       <c r="E9" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -568,24 +567,26 @@
         <v>20.0</v>
       </c>
       <c r="E10" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8">
         <f>0.93*D16</f>
-        <v>55.8</v>
+        <v>111.6</v>
       </c>
       <c r="I10" s="8">
         <v>73.0</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>63.0</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8">
         <f>IF(D16=0, 0, H10/D16)*H23 + IF(D20=0, 0, I10/D20)*I23 + IF(D21=0, 0, J10/D21)*J23 + IF(D22=0, 0, K10/D22)*K23 + IF(D23=0, 0, L10/D23)*L23</f>
-        <v>91.83333333</v>
+        <v>90.58333333</v>
       </c>
     </row>
     <row r="11">
@@ -597,24 +598,26 @@
         <v>20.0</v>
       </c>
       <c r="E11" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="8">
         <f>0.9*D16</f>
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I11" s="8">
         <v>68.0</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <v>57.0</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8">
         <f>IF(D16=0, 0, H11/D16)*H23 + IF(D20=0, 0, I11/D20)*I23 + IF(D21=0, 0, J11/D21)*J23 + IF(D22=0, 0, K11/D22)*K23 + IF(D23=0, 0, L11/D23)*L23</f>
-        <v>86.66666667</v>
+        <v>84.72222222</v>
       </c>
     </row>
     <row r="12">
@@ -633,17 +636,19 @@
       </c>
       <c r="H12" s="8">
         <f>0.87*D16</f>
-        <v>52.2</v>
+        <v>104.4</v>
       </c>
       <c r="I12" s="8">
         <v>63.0</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <v>52.0</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8">
         <f>IF(D16=0, 0, H12/D16)*H23 + IF(D20=0, 0, I12/D20)*I23 + IF(D21=0, 0, J12/D21)*J23 + IF(D22=0, 0, K12/D22)*K23 + IF(D23=0, 0, L12/D23)*L23</f>
-        <v>81.5</v>
+        <v>79.32407407</v>
       </c>
     </row>
     <row r="13">
@@ -662,17 +667,19 @@
       </c>
       <c r="H13" s="8">
         <f>0.83*D16</f>
-        <v>49.8</v>
+        <v>99.6</v>
       </c>
       <c r="I13" s="8">
         <v>57.0</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8">
+        <v>47.0</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8">
         <f>IF(D16=0, 0, H13/D16)*H23 + IF(D20=0, 0, I13/D20)*I23 + IF(D21=0, 0, J13/D21)*J23 + IF(D22=0, 0, K13/D22)*K23 + IF(D23=0, 0, L13/D23)*L23</f>
-        <v>75.16666667</v>
+        <v>73.17592593</v>
       </c>
     </row>
     <row r="14">
@@ -691,17 +698,19 @@
       </c>
       <c r="H14" s="8">
         <f>0.8*D16</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I14" s="8">
         <v>50.0</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8">
+        <v>42.0</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8">
         <f>IF(D16=0, 0, H14/D16)*H23 + IF(D20=0, 0, I14/D20)*I23 + IF(D21=0, 0, J14/D21)*J23 + IF(D22=0, 0, K14/D22)*K23 + IF(D23=0, 0, L14/D23)*L23</f>
-        <v>68.33333333</v>
+        <v>66.94444444</v>
       </c>
     </row>
     <row r="15">
@@ -720,17 +729,19 @@
       </c>
       <c r="H15" s="8">
         <f>0.77*D16</f>
-        <v>46.2</v>
+        <v>92.4</v>
       </c>
       <c r="I15" s="8">
         <v>44.0</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8">
+        <v>37.0</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8">
         <f>IF(D16=0, 0, H15/D16)*H23 + IF(D20=0, 0, I15/D20)*I23 + IF(D21=0, 0, J15/D21)*J23 + IF(D22=0, 0, K15/D22)*K23 + IF(D23=0, 0, L15/D23)*L23</f>
-        <v>62.33333333</v>
+        <v>61.12962963</v>
       </c>
     </row>
     <row r="16">
@@ -743,7 +754,7 @@
       </c>
       <c r="D16" s="6">
         <f>20*MIN(SUM(E6:E15),COUNT(E6:E15)-1)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="7" t="s">
@@ -751,17 +762,19 @@
       </c>
       <c r="H16" s="8">
         <f>0.73*D16</f>
-        <v>43.8</v>
+        <v>87.6</v>
       </c>
       <c r="I16" s="8">
         <v>37.0</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>30.0</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8">
         <f>IF(D16=0, 0, H16/D16)*H23 + IF(D20=0, 0, I16/D20)*I23 + IF(D21=0, 0, J16/D21)*J23 + IF(D22=0, 0, K16/D22)*K23 + IF(D23=0, 0, L16/D23)*L23</f>
-        <v>55.16666667</v>
+        <v>53.63888889</v>
       </c>
     </row>
     <row r="17">
@@ -770,17 +783,19 @@
       </c>
       <c r="H17" s="8">
         <f>0.7*D16</f>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I17" s="8">
         <v>30.0</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8">
+        <v>22.0</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8">
         <f>IF(D16=0, 0, H17/D16)*H23 + IF(D20=0, 0, I17/D20)*I23 + IF(D21=0, 0, J17/D21)*J23 + IF(D22=0, 0, K17/D22)*K23 + IF(D23=0, 0, L17/D23)*L23</f>
-        <v>48.33333333</v>
+        <v>46.01851852</v>
       </c>
     </row>
     <row r="18">
@@ -789,17 +804,19 @@
       </c>
       <c r="H18" s="8">
         <f>0.67*D16</f>
-        <v>40.2</v>
+        <v>80.4</v>
       </c>
       <c r="I18" s="8">
         <v>24.0</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8">
+        <v>17.0</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8">
         <f>IF(D16=0, 0, H18/D16)*H23 + IF(D20=0, 0, I18/D20)*I23 + IF(D21=0, 0, J18/D21)*J23 + IF(D22=0, 0, K18/D22)*K23 + IF(D23=0, 0, L18/D23)*L23</f>
-        <v>42.33333333</v>
+        <v>40.2037037</v>
       </c>
     </row>
     <row r="19">
@@ -820,17 +837,19 @@
       </c>
       <c r="H19" s="8">
         <f>0.63*D16</f>
-        <v>37.8</v>
+        <v>75.6</v>
       </c>
       <c r="I19" s="8">
         <v>18.0</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8">
+        <v>13.0</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8">
         <f>IF(D16=0, 0, H19/D16)*H23 + IF(D20=0, 0, I19/D20)*I23 + IF(D21=0, 0, J19/D21)*J23 + IF(D22=0, 0, K19/D22)*K23 + IF(D23=0, 0, L19/D23)*L23</f>
-        <v>36</v>
+        <v>34.51851852</v>
       </c>
     </row>
     <row r="20">
@@ -849,26 +868,31 @@
       </c>
       <c r="H20" s="8">
         <f>0.6*D16</f>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I20" s="8">
         <v>13.0</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8">
+        <v>9.0</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8">
         <f>IF(D16=0, 0, H20/D16)*H23 + IF(D20=0, 0, I20/D20)*I23 + IF(D21=0, 0, J20/D21)*J23 + IF(D22=0, 0, K20/D22)*K23 + IF(D23=0, 0, L20/D23)*L23</f>
-        <v>30.83333333</v>
+        <v>29.58333333</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7">
+        <v>72.0</v>
+      </c>
       <c r="E21" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>41</v>
@@ -880,7 +904,9 @@
       <c r="I21" s="8">
         <v>0.0</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8">
+        <v>0.0</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8">
@@ -892,7 +918,7 @@
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="5"/>
       <c r="E22" s="7">
         <v>0.0</v>
       </c>
@@ -928,7 +954,7 @@
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="5"/>
       <c r="E23" s="7">
         <v>0.0</v>
       </c>
@@ -941,11 +967,11 @@
       </c>
       <c r="I23" s="8">
         <f>10000*E20*0.15 / D2</f>
-        <v>66.66666667</v>
+        <v>33.33333333</v>
       </c>
       <c r="J23" s="8">
         <f>10000*E21*0.15 / D2</f>
-        <v>0</v>
+        <v>33.33333333</v>
       </c>
       <c r="K23" s="8">
         <f>10000*E22*0.15 / D2</f>

--- a/418_S24/gradelines.xlsx
+++ b/418_S24/gradelines.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="D2" s="2">
         <f>100*(SUM(E6:E15)/COUNT(E6:E15)*0.25 + SUM(E20:E22)*0.15 + E23*0.3)</f>
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -574,7 +574,7 @@
       </c>
       <c r="H10" s="8">
         <f>0.93*D16</f>
-        <v>111.6</v>
+        <v>148.8</v>
       </c>
       <c r="I10" s="8">
         <v>73.0</v>
@@ -582,11 +582,13 @@
       <c r="J10" s="8">
         <v>63.0</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="6">
+        <v>68.0</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8">
         <f>IF(D16=0, 0, H10/D16)*H23 + IF(D20=0, 0, I10/D20)*I23 + IF(D21=0, 0, J10/D21)*J23 + IF(D22=0, 0, K10/D22)*K23 + IF(D23=0, 0, L10/D23)*L23</f>
-        <v>90.58333333</v>
+        <v>89.48076923</v>
       </c>
     </row>
     <row r="11">
@@ -605,7 +607,7 @@
       </c>
       <c r="H11" s="8">
         <f>0.9*D16</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I11" s="8">
         <v>68.0</v>
@@ -613,11 +615,13 @@
       <c r="J11" s="8">
         <v>57.0</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="6">
+        <v>61.0</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8">
         <f>IF(D16=0, 0, H11/D16)*H23 + IF(D20=0, 0, I11/D20)*I23 + IF(D21=0, 0, J11/D21)*J23 + IF(D22=0, 0, K11/D22)*K23 + IF(D23=0, 0, L11/D23)*L23</f>
-        <v>84.72222222</v>
+        <v>83.17307692</v>
       </c>
     </row>
     <row r="12">
@@ -629,14 +633,14 @@
         <v>20.0</v>
       </c>
       <c r="E12" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="8">
         <f>0.87*D16</f>
-        <v>104.4</v>
+        <v>139.2</v>
       </c>
       <c r="I12" s="8">
         <v>63.0</v>
@@ -644,11 +648,13 @@
       <c r="J12" s="8">
         <v>52.0</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="6">
+        <v>53.0</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8">
         <f>IF(D16=0, 0, H12/D16)*H23 + IF(D20=0, 0, I12/D20)*I23 + IF(D21=0, 0, J12/D21)*J23 + IF(D22=0, 0, K12/D22)*K23 + IF(D23=0, 0, L12/D23)*L23</f>
-        <v>79.32407407</v>
+        <v>76.8974359</v>
       </c>
     </row>
     <row r="13">
@@ -660,14 +666,14 @@
         <v>20.0</v>
       </c>
       <c r="E13" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="8">
         <f>0.83*D16</f>
-        <v>99.6</v>
+        <v>132.8</v>
       </c>
       <c r="I13" s="8">
         <v>57.0</v>
@@ -675,11 +681,13 @@
       <c r="J13" s="8">
         <v>47.0</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="6">
+        <v>46.0</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8">
         <f>IF(D16=0, 0, H13/D16)*H23 + IF(D20=0, 0, I13/D20)*I23 + IF(D21=0, 0, J13/D21)*J23 + IF(D22=0, 0, K13/D22)*K23 + IF(D23=0, 0, L13/D23)*L23</f>
-        <v>73.17592593</v>
+        <v>70.31410256</v>
       </c>
     </row>
     <row r="14">
@@ -698,7 +706,7 @@
       </c>
       <c r="H14" s="8">
         <f>0.8*D16</f>
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="I14" s="8">
         <v>50.0</v>
@@ -706,11 +714,13 @@
       <c r="J14" s="8">
         <v>42.0</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="6">
+        <v>39.0</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8">
         <f>IF(D16=0, 0, H14/D16)*H23 + IF(D20=0, 0, I14/D20)*I23 + IF(D21=0, 0, J14/D21)*J23 + IF(D22=0, 0, K14/D22)*K23 + IF(D23=0, 0, L14/D23)*L23</f>
-        <v>66.94444444</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="15">
@@ -729,7 +739,7 @@
       </c>
       <c r="H15" s="8">
         <f>0.77*D16</f>
-        <v>92.4</v>
+        <v>123.2</v>
       </c>
       <c r="I15" s="8">
         <v>44.0</v>
@@ -737,11 +747,13 @@
       <c r="J15" s="8">
         <v>37.0</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="6">
+        <v>32.0</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8">
         <f>IF(D16=0, 0, H15/D16)*H23 + IF(D20=0, 0, I15/D20)*I23 + IF(D21=0, 0, J15/D21)*J23 + IF(D22=0, 0, K15/D22)*K23 + IF(D23=0, 0, L15/D23)*L23</f>
-        <v>61.12962963</v>
+        <v>57.47435897</v>
       </c>
     </row>
     <row r="16">
@@ -754,7 +766,7 @@
       </c>
       <c r="D16" s="6">
         <f>20*MIN(SUM(E6:E15),COUNT(E6:E15)-1)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="7" t="s">
@@ -762,7 +774,7 @@
       </c>
       <c r="H16" s="8">
         <f>0.73*D16</f>
-        <v>87.6</v>
+        <v>116.8</v>
       </c>
       <c r="I16" s="8">
         <v>37.0</v>
@@ -770,11 +782,13 @@
       <c r="J16" s="8">
         <v>30.0</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="6">
+        <v>27.0</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8">
         <f>IF(D16=0, 0, H16/D16)*H23 + IF(D20=0, 0, I16/D20)*I23 + IF(D21=0, 0, J16/D21)*J23 + IF(D22=0, 0, K16/D22)*K23 + IF(D23=0, 0, L16/D23)*L23</f>
-        <v>53.63888889</v>
+        <v>50.53846154</v>
       </c>
     </row>
     <row r="17">
@@ -783,7 +797,7 @@
       </c>
       <c r="H17" s="8">
         <f>0.7*D16</f>
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I17" s="8">
         <v>30.0</v>
@@ -791,11 +805,13 @@
       <c r="J17" s="8">
         <v>22.0</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="6">
+        <v>18.0</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8">
         <f>IF(D16=0, 0, H17/D16)*H23 + IF(D20=0, 0, I17/D20)*I23 + IF(D21=0, 0, J17/D21)*J23 + IF(D22=0, 0, K17/D22)*K23 + IF(D23=0, 0, L17/D23)*L23</f>
-        <v>46.01851852</v>
+        <v>42.43589744</v>
       </c>
     </row>
     <row r="18">
@@ -804,7 +820,7 @@
       </c>
       <c r="H18" s="8">
         <f>0.67*D16</f>
-        <v>80.4</v>
+        <v>107.2</v>
       </c>
       <c r="I18" s="8">
         <v>24.0</v>
@@ -812,11 +828,13 @@
       <c r="J18" s="8">
         <v>17.0</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="6">
+        <v>12.0</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8">
         <f>IF(D16=0, 0, H18/D16)*H23 + IF(D20=0, 0, I18/D20)*I23 + IF(D21=0, 0, J18/D21)*J23 + IF(D22=0, 0, K18/D22)*K23 + IF(D23=0, 0, L18/D23)*L23</f>
-        <v>40.2037037</v>
+        <v>36.44871795</v>
       </c>
     </row>
     <row r="19">
@@ -837,7 +855,7 @@
       </c>
       <c r="H19" s="8">
         <f>0.63*D16</f>
-        <v>75.6</v>
+        <v>100.8</v>
       </c>
       <c r="I19" s="8">
         <v>18.0</v>
@@ -845,11 +863,13 @@
       <c r="J19" s="8">
         <v>13.0</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="6">
+        <v>8.0</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8">
         <f>IF(D16=0, 0, H19/D16)*H23 + IF(D20=0, 0, I19/D20)*I23 + IF(D21=0, 0, J19/D21)*J23 + IF(D22=0, 0, K19/D22)*K23 + IF(D23=0, 0, L19/D23)*L23</f>
-        <v>34.51851852</v>
+        <v>31.05128205</v>
       </c>
     </row>
     <row r="20">
@@ -868,7 +888,7 @@
       </c>
       <c r="H20" s="8">
         <f>0.6*D16</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I20" s="8">
         <v>13.0</v>
@@ -876,11 +896,13 @@
       <c r="J20" s="8">
         <v>9.0</v>
       </c>
-      <c r="K20" s="8"/>
+      <c r="K20" s="6">
+        <v>5.0</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8">
         <f>IF(D16=0, 0, H20/D16)*H23 + IF(D20=0, 0, I20/D20)*I23 + IF(D21=0, 0, J20/D21)*J23 + IF(D22=0, 0, K20/D22)*K23 + IF(D23=0, 0, L20/D23)*L23</f>
-        <v>29.58333333</v>
+        <v>26.53846154</v>
       </c>
     </row>
     <row r="21">
@@ -907,7 +929,9 @@
       <c r="J21" s="8">
         <v>0.0</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8">
         <f>IF(D16=0, 0, H21/D16)*H23 + IF(D20=0, 0, I21/D20)*I23 + IF(D21=0, 0, J21/D21)*J23 + IF(D22=0, 0, K21/D22)*K23 + IF(D23=0, 0, L21/D23)*L23</f>
@@ -919,8 +943,11 @@
         <v>19</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="7">
+        <v>80.0</v>
+      </c>
       <c r="E22" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>7</v>
@@ -955,6 +982,9 @@
         <v>20</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="7">
+        <v>72.0</v>
+      </c>
       <c r="E23" s="7">
         <v>0.0</v>
       </c>
@@ -963,19 +993,19 @@
       </c>
       <c r="H23" s="8">
         <f>10000*(SUM(E6:E15)/COUNT(E6:E15)*0.25) / D2</f>
-        <v>33.33333333</v>
+        <v>30.76923077</v>
       </c>
       <c r="I23" s="8">
         <f>10000*E20*0.15 / D2</f>
-        <v>33.33333333</v>
+        <v>23.07692308</v>
       </c>
       <c r="J23" s="8">
         <f>10000*E21*0.15 / D2</f>
-        <v>33.33333333</v>
+        <v>23.07692308</v>
       </c>
       <c r="K23" s="8">
         <f>10000*E22*0.15 / D2</f>
-        <v>0</v>
+        <v>23.07692308</v>
       </c>
       <c r="L23" s="8">
         <f>10000*E23*0.3 / D2</f>

--- a/418_S24/gradelines.xlsx
+++ b/418_S24/gradelines.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="D2" s="2">
         <f>100*(SUM(E6:E15)/COUNT(E6:E15)*0.25 + SUM(E20:E22)*0.15 + E23*0.3)</f>
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -574,7 +574,7 @@
       </c>
       <c r="H10" s="8">
         <f>0.93*D16</f>
-        <v>148.8</v>
+        <v>167.4</v>
       </c>
       <c r="I10" s="8">
         <v>73.0</v>
@@ -585,10 +585,12 @@
       <c r="K10" s="6">
         <v>68.0</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8">
+        <v>95.0</v>
+      </c>
       <c r="M10" s="8">
         <f>IF(D16=0, 0, H10/D16)*H23 + IF(D20=0, 0, I10/D20)*I23 + IF(D21=0, 0, J10/D21)*J23 + IF(D22=0, 0, K10/D22)*K23 + IF(D23=0, 0, L10/D23)*L23</f>
-        <v>89.48076923</v>
+        <v>89.95535714</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +609,7 @@
       </c>
       <c r="H11" s="8">
         <f>0.9*D16</f>
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I11" s="8">
         <v>68.0</v>
@@ -618,10 +620,12 @@
       <c r="K11" s="6">
         <v>61.0</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8">
+        <v>86.0</v>
+      </c>
       <c r="M11" s="8">
         <f>IF(D16=0, 0, H11/D16)*H23 + IF(D20=0, 0, I11/D20)*I23 + IF(D21=0, 0, J11/D21)*J23 + IF(D22=0, 0, K11/D22)*K23 + IF(D23=0, 0, L11/D23)*L23</f>
-        <v>83.17307692</v>
+        <v>83.13392857</v>
       </c>
     </row>
     <row r="12">
@@ -640,7 +644,7 @@
       </c>
       <c r="H12" s="8">
         <f>0.87*D16</f>
-        <v>139.2</v>
+        <v>156.6</v>
       </c>
       <c r="I12" s="8">
         <v>63.0</v>
@@ -651,10 +655,12 @@
       <c r="K12" s="6">
         <v>53.0</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>78.0</v>
+      </c>
       <c r="M12" s="8">
         <f>IF(D16=0, 0, H12/D16)*H23 + IF(D20=0, 0, I12/D20)*I23 + IF(D21=0, 0, J12/D21)*J23 + IF(D22=0, 0, K12/D22)*K23 + IF(D23=0, 0, L12/D23)*L23</f>
-        <v>76.8974359</v>
+        <v>76.61904762</v>
       </c>
     </row>
     <row r="13">
@@ -673,7 +679,7 @@
       </c>
       <c r="H13" s="8">
         <f>0.83*D16</f>
-        <v>132.8</v>
+        <v>149.4</v>
       </c>
       <c r="I13" s="8">
         <v>57.0</v>
@@ -684,10 +690,12 @@
       <c r="K13" s="6">
         <v>46.0</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8">
+        <v>71.0</v>
+      </c>
       <c r="M13" s="8">
         <f>IF(D16=0, 0, H13/D16)*H23 + IF(D20=0, 0, I13/D20)*I23 + IF(D21=0, 0, J13/D21)*J23 + IF(D22=0, 0, K13/D22)*K23 + IF(D23=0, 0, L13/D23)*L23</f>
-        <v>70.31410256</v>
+        <v>70.13988095</v>
       </c>
     </row>
     <row r="14">
@@ -699,14 +707,14 @@
         <v>20.0</v>
       </c>
       <c r="E14" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="8">
         <f>0.8*D16</f>
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="I14" s="8">
         <v>50.0</v>
@@ -717,10 +725,12 @@
       <c r="K14" s="6">
         <v>39.0</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8">
+        <v>64.0</v>
+      </c>
       <c r="M14" s="8">
         <f>IF(D16=0, 0, H14/D16)*H23 + IF(D20=0, 0, I14/D20)*I23 + IF(D21=0, 0, J14/D21)*J23 + IF(D22=0, 0, K14/D22)*K23 + IF(D23=0, 0, L14/D23)*L23</f>
-        <v>63.75</v>
+        <v>63.72321429</v>
       </c>
     </row>
     <row r="15">
@@ -732,14 +742,14 @@
         <v>20.0</v>
       </c>
       <c r="E15" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="8">
         <f>0.77*D16</f>
-        <v>123.2</v>
+        <v>138.6</v>
       </c>
       <c r="I15" s="8">
         <v>44.0</v>
@@ -750,10 +760,12 @@
       <c r="K15" s="6">
         <v>32.0</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="8">
+        <v>56.0</v>
+      </c>
       <c r="M15" s="8">
         <f>IF(D16=0, 0, H15/D16)*H23 + IF(D20=0, 0, I15/D20)*I23 + IF(D21=0, 0, J15/D21)*J23 + IF(D22=0, 0, K15/D22)*K23 + IF(D23=0, 0, L15/D23)*L23</f>
-        <v>57.47435897</v>
+        <v>57.20833333</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +778,7 @@
       </c>
       <c r="D16" s="6">
         <f>20*MIN(SUM(E6:E15),COUNT(E6:E15)-1)</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="7" t="s">
@@ -774,7 +786,7 @@
       </c>
       <c r="H16" s="8">
         <f>0.73*D16</f>
-        <v>116.8</v>
+        <v>131.4</v>
       </c>
       <c r="I16" s="8">
         <v>37.0</v>
@@ -785,10 +797,12 @@
       <c r="K16" s="6">
         <v>27.0</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8">
+        <v>48.0</v>
+      </c>
       <c r="M16" s="8">
         <f>IF(D16=0, 0, H16/D16)*H23 + IF(D20=0, 0, I16/D20)*I23 + IF(D21=0, 0, J16/D21)*J23 + IF(D22=0, 0, K16/D22)*K23 + IF(D23=0, 0, L16/D23)*L23</f>
-        <v>50.53846154</v>
+        <v>50.21428571</v>
       </c>
     </row>
     <row r="17">
@@ -797,7 +811,7 @@
       </c>
       <c r="H17" s="8">
         <f>0.7*D16</f>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I17" s="8">
         <v>30.0</v>
@@ -808,10 +822,12 @@
       <c r="K17" s="6">
         <v>18.0</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8">
+        <v>40.0</v>
+      </c>
       <c r="M17" s="8">
         <f>IF(D16=0, 0, H17/D16)*H23 + IF(D20=0, 0, I17/D20)*I23 + IF(D21=0, 0, J17/D21)*J23 + IF(D22=0, 0, K17/D22)*K23 + IF(D23=0, 0, L17/D23)*L23</f>
-        <v>42.43589744</v>
+        <v>42.51190476</v>
       </c>
     </row>
     <row r="18">
@@ -820,7 +836,7 @@
       </c>
       <c r="H18" s="8">
         <f>0.67*D16</f>
-        <v>107.2</v>
+        <v>120.6</v>
       </c>
       <c r="I18" s="8">
         <v>24.0</v>
@@ -831,10 +847,12 @@
       <c r="K18" s="6">
         <v>12.0</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8">
+        <v>30.0</v>
+      </c>
       <c r="M18" s="8">
         <f>IF(D16=0, 0, H18/D16)*H23 + IF(D20=0, 0, I18/D20)*I23 + IF(D21=0, 0, J18/D21)*J23 + IF(D22=0, 0, K18/D22)*K23 + IF(D23=0, 0, L18/D23)*L23</f>
-        <v>36.44871795</v>
+        <v>35.61309524</v>
       </c>
     </row>
     <row r="19">
@@ -855,7 +873,7 @@
       </c>
       <c r="H19" s="8">
         <f>0.63*D16</f>
-        <v>100.8</v>
+        <v>113.4</v>
       </c>
       <c r="I19" s="8">
         <v>18.0</v>
@@ -866,10 +884,12 @@
       <c r="K19" s="6">
         <v>8.0</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8">
+        <v>20.0</v>
+      </c>
       <c r="M19" s="8">
         <f>IF(D16=0, 0, H19/D16)*H23 + IF(D20=0, 0, I19/D20)*I23 + IF(D21=0, 0, J19/D21)*J23 + IF(D22=0, 0, K19/D22)*K23 + IF(D23=0, 0, L19/D23)*L23</f>
-        <v>31.05128205</v>
+        <v>29.04761905</v>
       </c>
     </row>
     <row r="20">
@@ -888,7 +908,7 @@
       </c>
       <c r="H20" s="8">
         <f>0.6*D16</f>
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I20" s="8">
         <v>13.0</v>
@@ -899,10 +919,12 @@
       <c r="K20" s="6">
         <v>5.0</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8">
+        <v>10.0</v>
+      </c>
       <c r="M20" s="8">
         <f>IF(D16=0, 0, H20/D16)*H23 + IF(D20=0, 0, I20/D20)*I23 + IF(D21=0, 0, J20/D21)*J23 + IF(D22=0, 0, K20/D22)*K23 + IF(D23=0, 0, L20/D23)*L23</f>
-        <v>26.53846154</v>
+        <v>23.10714286</v>
       </c>
     </row>
     <row r="21">
@@ -932,7 +954,9 @@
       <c r="K21" s="6">
         <v>0.0</v>
       </c>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8">
+        <v>0.0</v>
+      </c>
       <c r="M21" s="8">
         <f>IF(D16=0, 0, H21/D16)*H23 + IF(D20=0, 0, I21/D20)*I23 + IF(D21=0, 0, J21/D21)*J23 + IF(D22=0, 0, K21/D22)*K23 + IF(D23=0, 0, L21/D23)*L23</f>
         <v>0</v>
@@ -983,33 +1007,33 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7">
-        <v>72.0</v>
+        <v>105.0</v>
       </c>
       <c r="E23" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="8">
         <f>10000*(SUM(E6:E15)/COUNT(E6:E15)*0.25) / D2</f>
-        <v>30.76923077</v>
+        <v>25</v>
       </c>
       <c r="I23" s="8">
         <f>10000*E20*0.15 / D2</f>
-        <v>23.07692308</v>
+        <v>15</v>
       </c>
       <c r="J23" s="8">
         <f>10000*E21*0.15 / D2</f>
-        <v>23.07692308</v>
+        <v>15</v>
       </c>
       <c r="K23" s="8">
         <f>10000*E22*0.15 / D2</f>
-        <v>23.07692308</v>
+        <v>15</v>
       </c>
       <c r="L23" s="8">
         <f>10000*E23*0.3 / D2</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M23" s="8">
         <f>SUM(H23:L23)</f>
